--- a/doc/12. 테이블 정의서 .xlsx
+++ b/doc/12. 테이블 정의서 .xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkdlf\Project\front-end\movie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC81B15C-D10E-4859-B7E5-5C8076DCA882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB6F6C7-DB3A-409A-B961-E3B9F70C241C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="테이블" sheetId="1" r:id="rId1"/>
+    <sheet name="도메인" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="240">
   <si>
     <t>테이블정의서</t>
   </si>
@@ -73,11 +86,896 @@
     <t>KEY</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>김용환</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원성별</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원생년월일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원핸드폰번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원주소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이메일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원비밀번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_SEX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_BIRTH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_PHONE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_ADDR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_EMAIL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_PWD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리명</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 타입</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기값</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>값의 범위</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>관람가</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectator</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(2)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 7, 12, 15, 19</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(10)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버쉽등급</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>브론즈, 골드, 다이아몬드</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰번호</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>separation</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석상태</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_status</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택가능, 선택불가, 예매불가</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자, 여자</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석열</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_column</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의종류</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_category</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>blob</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석행</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_row</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(2)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_MEMBER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_MEM_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_MEM_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_MEM_PHONE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_MEM_BIRTH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_MEM_PWD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원핸드폰번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원생년월일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원비밀번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_SHIP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버쉽 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버쉽번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버쉽등급</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버쉽</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의작성자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의제목</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의내용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의첨부파일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의종류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUESTION</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(1000)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QST_WRITER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QST_TITLE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QST_CONTENT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QST_FILE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QST_CATEGORY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK, FK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIP_RATING</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니총금액</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니상품</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니안에 있는 각각의 상품의 정보를 담고 있는 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK FK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART_PRODUCT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관에서 파는 부가 서비스의 정보를 담는 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품분류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매금액</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_CATEGORY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_PRICE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_STOCK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART_SUM_PRICE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화를 예매한것이나 장바구니의 상품들을 결재한 정보를 저장하는 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재금액</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재방법</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재방법</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_method</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용카드, 핸드폰, 무통장입금</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품재고개수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_PRICE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_METHOD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_MEM_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKETING</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_NUM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매개수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매금액</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_SEQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_SEQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_SEQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART_SEQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QST_SEQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIP_SEQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_PRICE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_TICKET</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 시간의 영화 상영에 따른 좌석 정보를 담는 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화표코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCREEN_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEATER_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영시간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCREEN_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCREEN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 영화에 대한 상영 일정 정보를 담은 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -87,7 +985,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -133,32 +1031,47 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="돋움"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +1102,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -312,6 +1231,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -333,48 +1267,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -590,8 +1591,8 @@
   </sheetPr>
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -602,16 +1603,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -642,7 +1643,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26"/>
@@ -653,15 +1654,15 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -693,293 +1694,2421 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>VLOOKUP(D6,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="17" t="str">
+        <f>VLOOKUP(D6,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>VLOOKUP(D7,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="17" t="str">
+        <f>VLOOKUP(D7,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>VLOOKUP(D8,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(10)</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="17" t="str">
+        <f>VLOOKUP(D8,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>VLOOKUP(D9,도메인!$A$2:$C$28,3,)</f>
+        <v>date</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f>VLOOKUP(D9,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>VLOOKUP(D10,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(20)</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f>VLOOKUP(D10,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>VLOOKUP(D11,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(200)</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="17" t="str">
+        <f>VLOOKUP(D11,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>VLOOKUP(D12,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(100)</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="17" t="str">
+        <f>VLOOKUP(D12,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>VLOOKUP(D13,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(100)</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="17" t="str">
+        <f>VLOOKUP(D13,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>VLOOKUP(D14,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(100)</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="17" t="str">
+        <f>VLOOKUP(D14,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>VLOOKUP(D22,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="17" t="str">
+        <f>VLOOKUP(D22,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>VLOOKUP(D23,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="17" t="str">
+        <f>VLOOKUP(D23,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>VLOOKUP(D24,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(20)</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="17" t="str">
+        <f>VLOOKUP(D24,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>VLOOKUP(D25,도메인!$A$2:$C$28,3,)</f>
+        <v>date</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="17" t="str">
+        <f>VLOOKUP(D25,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>5</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f>VLOOKUP(D26,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(100)</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="17" t="str">
+        <f>VLOOKUP(D26,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="2" t="s">
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f>VLOOKUP(D33,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="17" t="str">
+        <f>VLOOKUP(D33,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f>VLOOKUP(D34,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="17" t="str">
+        <f>VLOOKUP(D34,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>3</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f>VLOOKUP(D35,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(10)</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="17" t="str">
+        <f>VLOOKUP(D35,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>브론즈</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="2" t="s">
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f>VLOOKUP(D43,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="17" t="str">
+        <f>VLOOKUP(D43,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f>VLOOKUP(D44,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="17" t="str">
+        <f>VLOOKUP(D44,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>3</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f>VLOOKUP(D45,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(100)</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="17" t="str">
+        <f>VLOOKUP(D45,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>4</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f>VLOOKUP(D46,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(1000)</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="17" t="str">
+        <f>VLOOKUP(D46,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>5</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f>VLOOKUP(D47,도메인!$A$2:$C$28,3,)</f>
+        <v>blob</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="17" t="str">
+        <f>VLOOKUP(D47,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>6</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f>VLOOKUP(D48,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(20)</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="17" t="str">
+        <f>VLOOKUP(D48,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>7</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f>VLOOKUP(D49,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="17" t="str">
+        <f>VLOOKUP(D49,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>8</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f>VLOOKUP(D50,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="17" t="str">
+        <f>VLOOKUP(D50,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f>VLOOKUP(D58,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="17" t="str">
+        <f>VLOOKUP(D58,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f>VLOOKUP(D59,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="17">
+        <f>VLOOKUP(D59,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>3</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f>VLOOKUP(D60,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="17" t="str">
+        <f>VLOOKUP(D60,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="20"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f>VLOOKUP(D68,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68" s="17" t="str">
+        <f>VLOOKUP(D68,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f>VLOOKUP(D69,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="17" t="str">
+        <f>VLOOKUP(D69,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>3</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f>VLOOKUP(D70,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="17">
+        <f>VLOOKUP(D70,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="24"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="25"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f>VLOOKUP(D78,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G78" s="17" t="str">
+        <f>VLOOKUP(D78,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f>VLOOKUP(D79,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(20)</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G79" s="17" t="str">
+        <f>VLOOKUP(D79,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f>VLOOKUP(D80,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G80" s="17" t="str">
+        <f>VLOOKUP(D80,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f>VLOOKUP(D81,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" s="17">
+        <f>VLOOKUP(D81,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f>VLOOKUP(D82,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G82" s="17">
+        <f>VLOOKUP(D82,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="24"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="25"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="20"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f>VLOOKUP(D90,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G90" s="17" t="str">
+        <f>VLOOKUP(D90,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f>VLOOKUP(D91,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G91" s="17">
+        <f>VLOOKUP(D91,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A92" s="4">
+        <v>3</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f>VLOOKUP(D92,도메인!$A$2:$C$28,3,)</f>
+        <v>date</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G92" s="17" t="str">
+        <f>VLOOKUP(D92,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f>VLOOKUP(D93,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(20)</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G93" s="17" t="str">
+        <f>VLOOKUP(D93,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="4">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f>VLOOKUP(D94,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G94" s="17" t="str">
+        <f>VLOOKUP(D94,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A95" s="4">
+        <v>6</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f>VLOOKUP(D95,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G95" s="17" t="str">
+        <f>VLOOKUP(D95,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E99" s="22"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="24"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="25"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="27"/>
+    </row>
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="20"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f>VLOOKUP(D103,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G103" s="17" t="str">
+        <f>VLOOKUP(D103,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>2</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f>VLOOKUP(D104,도메인!$A$2:$C$28,3,)</f>
+        <v>date</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G104" s="17" t="str">
+        <f>VLOOKUP(D104,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A105" s="4">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f>VLOOKUP(D105,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G105" s="17">
+        <f>VLOOKUP(D105,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A106" s="4">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f>VLOOKUP(D106,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" s="17">
+        <f>VLOOKUP(D106,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A107" s="4">
+        <v>5</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f>VLOOKUP(D107,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G107" s="17" t="str">
+        <f>VLOOKUP(D107,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A108" s="4">
+        <v>6</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f>VLOOKUP(D108,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G108" s="17" t="str">
+        <f>VLOOKUP(D108,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="20"/>
+    </row>
+    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E112" s="22"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="24"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="25"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="27"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="20"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>1</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f>VLOOKUP(D116,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G116" s="17" t="str">
+        <f>VLOOKUP(D116,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>2</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f>VLOOKUP(D117,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G117" s="17" t="str">
+        <f>VLOOKUP(D117,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A118" s="4">
+        <v>3</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f>VLOOKUP(D118,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G118" s="17" t="str">
+        <f>VLOOKUP(D118,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A119" s="4">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f>VLOOKUP(D119,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G119" s="17" t="str">
+        <f>VLOOKUP(D119,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A122" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E123" s="22"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="24"/>
+    </row>
+    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="25"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="27"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="20"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f>VLOOKUP(D127,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G127" s="17" t="str">
+        <f>VLOOKUP(D127,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>2</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f>VLOOKUP(D128,도메인!$A$2:$C$28,3,)</f>
+        <v>date</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G128" s="17" t="str">
+        <f>VLOOKUP(D128,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A129" s="4">
+        <v>3</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f>VLOOKUP(D129,도메인!$A$2:$C$28,3,)</f>
+        <v>date</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G129" s="17" t="str">
+        <f>VLOOKUP(D129,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A130" s="4">
+        <v>4</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f>VLOOKUP(D130,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G130" s="17" t="str">
+        <f>VLOOKUP(D130,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A131" s="4">
+        <v>5</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f>VLOOKUP(D131,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G131" s="17" t="str">
+        <f>VLOOKUP(D131,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="145" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="146" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="147" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -1056,13 +4185,507 @@
     <row r="225" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="226" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="33">
+    <mergeCell ref="E123:H124"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="E112:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="E86:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="E99:H100"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="E29:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="E74:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="E54:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="E64:H65"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF280D25-1D07-4571-95ED-26D5296A625E}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3 A5 A7:A28">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/12. 테이블 정의서 .xlsx
+++ b/doc/12. 테이블 정의서 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkdlf\Project\front-end\movie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB6F6C7-DB3A-409A-B961-E3B9F70C241C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96D784E-988A-4F4E-8C6E-6DDC658CF94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="321">
   <si>
     <t>테이블정의서</t>
   </si>
@@ -975,6 +975,330 @@
   </si>
   <si>
     <t>한 영화에 대한 상영 일정 정보를 담은 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCREEN_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCREEN_TIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화제목</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관람가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관람가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_TITLE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE_SPECTATOR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEATER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관좌석수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEATER_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEATER_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEATER_SEAT_NUM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관지역</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA_LOCATION</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석행</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석열</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석상태</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAT_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAT_ROW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAT_COL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAT_STATUS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 글에 대한 정보를 담는 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰작성자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰작성일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰제목</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰내용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰별점</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원코드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_SEQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_WRITER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_TITLE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_CONTENT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_STAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_CODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰답변</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_COMMENT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰글에 달리는 답변글에 대한 정보를 담는 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰답변번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰답변작성자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰답변작성일자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위리뷰답변번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC_SEQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC_WRITER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC_CONTENT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC_PARENT_SEQ</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1293,6 +1617,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1301,50 +1634,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1591,8 +1885,8 @@
   </sheetPr>
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192:H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1603,16 +1897,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1627,10 +1921,10 @@
       <c r="D2" s="3">
         <v>44635</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1645,24 +1939,24 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1929,16 +2223,16 @@
     <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1953,10 +2247,10 @@
       <c r="D18" s="3">
         <v>44635</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1971,24 +2265,24 @@
       <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2150,16 +2444,16 @@
     </row>
     <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2174,10 +2468,10 @@
       <c r="D29" s="3">
         <v>44635</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2192,24 +2486,24 @@
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2320,16 +2614,16 @@
     <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -2344,10 +2638,10 @@
       <c r="D39" s="3">
         <v>44635</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -2362,24 +2656,24 @@
       <c r="D40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2622,16 +2916,16 @@
     <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -2646,10 +2940,10 @@
       <c r="D54" s="3">
         <v>44635</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -2664,24 +2958,24 @@
       <c r="D55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -2794,16 +3088,16 @@
     <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="20"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27"/>
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -2818,10 +3112,10 @@
       <c r="D64" s="3">
         <v>44635</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -2836,24 +3130,24 @@
       <c r="D65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="27"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="20"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -2966,16 +3260,16 @@
     <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="20"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -2990,10 +3284,10 @@
       <c r="D74" s="3">
         <v>44635</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="24"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="21"/>
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -3008,24 +3302,24 @@
       <c r="D75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="25"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="27"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24"/>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="20"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27"/>
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -3186,16 +3480,16 @@
       <c r="H82" s="7"/>
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="20"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -3210,10 +3504,10 @@
       <c r="D86" s="3">
         <v>44635</v>
       </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="24"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="21"/>
     </row>
     <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -3228,24 +3522,24 @@
       <c r="D87" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="27"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="24"/>
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="20"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -3434,16 +3728,16 @@
     <row r="96" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="20"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="27"/>
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -3458,10 +3752,10 @@
       <c r="D99" s="3">
         <v>44635</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="24"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="21"/>
     </row>
     <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -3476,24 +3770,24 @@
       <c r="D100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="25"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="27"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="24"/>
     </row>
     <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="20"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="27"/>
     </row>
     <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -3681,16 +3975,16 @@
     </row>
     <row r="109" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="20"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="27"/>
     </row>
     <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -3705,10 +3999,10 @@
       <c r="D112" s="3">
         <v>44635</v>
       </c>
-      <c r="E112" s="22"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="24"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="21"/>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -3723,24 +4017,24 @@
       <c r="D113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E113" s="25"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="27"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="24"/>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="20"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="27"/>
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -3882,16 +4176,16 @@
     </row>
     <row r="120" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="20"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="27"/>
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -3906,10 +4200,10 @@
       <c r="D123" s="3">
         <v>44635</v>
       </c>
-      <c r="E123" s="22"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="24"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="21"/>
     </row>
     <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -3924,24 +4218,24 @@
       <c r="D124" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E124" s="25"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="27"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="24"/>
     </row>
     <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="20"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="27"/>
     </row>
     <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -4001,7 +4295,9 @@
       <c r="A128" s="4">
         <v>2</v>
       </c>
-      <c r="B128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="C128" s="2" t="s">
         <v>233</v>
       </c>
@@ -4025,7 +4321,9 @@
       <c r="A129" s="4">
         <v>3</v>
       </c>
-      <c r="B129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="C129" s="8" t="s">
         <v>234</v>
       </c>
@@ -4049,7 +4347,9 @@
       <c r="A130" s="4">
         <v>4</v>
       </c>
-      <c r="B130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="C130" s="9" t="s">
         <v>235</v>
       </c>
@@ -4075,7 +4375,9 @@
       <c r="A131" s="4">
         <v>5</v>
       </c>
-      <c r="B131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="C131" s="9" t="s">
         <v>226</v>
       </c>
@@ -4099,75 +4401,1298 @@
     </row>
     <row r="132" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A134" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="26"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="27"/>
+    </row>
+    <row r="135" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E135" s="19"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="21"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="22"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="24"/>
+    </row>
+    <row r="137" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="27"/>
+    </row>
+    <row r="138" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>1</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f>VLOOKUP(D139,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G139" s="17" t="str">
+        <f>VLOOKUP(D139,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>2</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f>VLOOKUP(D140,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(100)</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G140" s="17" t="str">
+        <f>VLOOKUP(D140,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A141" s="4">
+        <v>3</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f>VLOOKUP(D141,도메인!$A$2:$C$28,3,)</f>
+        <v>number(2)</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G141" s="17" t="str">
+        <f>VLOOKUP(D141,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H141" s="2"/>
+    </row>
     <row r="142" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A144" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="27"/>
+    </row>
+    <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E145" s="19"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="21"/>
+    </row>
+    <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="22"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="24"/>
+    </row>
+    <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="27"/>
+    </row>
+    <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>1</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f>VLOOKUP(D149,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G149" s="17" t="str">
+        <f>VLOOKUP(D149,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>2</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f>VLOOKUP(D150,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G150" s="17" t="str">
+        <f>VLOOKUP(D150,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A151" s="4">
+        <v>3</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f>VLOOKUP(D151,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G151" s="17">
+        <f>VLOOKUP(D151,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A152" s="4">
+        <v>4</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f>VLOOKUP(D152,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G152" s="17" t="str">
+        <f>VLOOKUP(D152,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A155" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="26"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="27"/>
+    </row>
+    <row r="156" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E156" s="19"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="21"/>
+    </row>
+    <row r="157" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="22"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="24"/>
+    </row>
+    <row r="158" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="27"/>
+    </row>
+    <row r="159" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>1</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f>VLOOKUP(D160,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G160" s="17" t="str">
+        <f>VLOOKUP(D160,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>2</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f>VLOOKUP(D161,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G161" s="17" t="str">
+        <f>VLOOKUP(D161,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A162" s="4">
+        <v>3</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f>VLOOKUP(D162,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G162" s="17" t="str">
+        <f>VLOOKUP(D162,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="27"/>
+    </row>
+    <row r="166" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E166" s="19"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="21"/>
+    </row>
+    <row r="167" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="22"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="24"/>
+    </row>
+    <row r="168" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="26"/>
+      <c r="H168" s="27"/>
+    </row>
+    <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>1</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f>VLOOKUP(D170,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G170" s="17" t="str">
+        <f>VLOOKUP(D170,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>2</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f>VLOOKUP(D171,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(2)</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G171" s="17" t="str">
+        <f>VLOOKUP(D171,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="4">
+        <v>3</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f>VLOOKUP(D172,도메인!$A$2:$C$28,3,)</f>
+        <v>number(2)</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G172" s="17" t="str">
+        <f>VLOOKUP(D172,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A173" s="4">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f>VLOOKUP(D173,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(20)</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G173" s="17" t="str">
+        <f>VLOOKUP(D173,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A174" s="4">
+        <v>5</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f>VLOOKUP(D174,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G174" s="17" t="str">
+        <f>VLOOKUP(D174,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A177" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="27"/>
+    </row>
+    <row r="178" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E178" s="19"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="21"/>
+    </row>
+    <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="22"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="23"/>
+      <c r="H179" s="24"/>
+    </row>
+    <row r="180" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="26"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="27"/>
+    </row>
+    <row r="181" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>1</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E182" s="2" t="str">
+        <f>VLOOKUP(D182,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G182" s="17" t="str">
+        <f>VLOOKUP(D182,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>2</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E183" s="2" t="str">
+        <f>VLOOKUP(D183,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G183" s="17" t="str">
+        <f>VLOOKUP(D183,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A184" s="4">
+        <v>3</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E184" s="2" t="str">
+        <f>VLOOKUP(D184,도메인!$A$2:$C$28,3,)</f>
+        <v>date</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G184" s="17" t="str">
+        <f>VLOOKUP(D184,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A185" s="4">
+        <v>4</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E185" s="2" t="str">
+        <f>VLOOKUP(D185,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(100)</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G185" s="17" t="str">
+        <f>VLOOKUP(D185,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A186" s="4">
+        <v>5</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E186" s="2" t="str">
+        <f>VLOOKUP(D186,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(1000)</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G186" s="17" t="str">
+        <f>VLOOKUP(D186,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A187" s="4">
+        <v>6</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E187" s="2" t="str">
+        <f>VLOOKUP(D187,도메인!$A$2:$C$28,3,)</f>
+        <v>number(1)</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G187" s="17" t="str">
+        <f>VLOOKUP(D187,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A188" s="4">
+        <v>7</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E188" s="2" t="str">
+        <f>VLOOKUP(D188,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G188" s="17" t="str">
+        <f>VLOOKUP(D188,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A189" s="4">
+        <v>8</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E189" s="2" t="str">
+        <f>VLOOKUP(D189,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G189" s="17" t="str">
+        <f>VLOOKUP(D189,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A192" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" s="26"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
+      <c r="F192" s="26"/>
+      <c r="G192" s="26"/>
+      <c r="H192" s="27"/>
+    </row>
+    <row r="193" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="3">
+        <v>44635</v>
+      </c>
+      <c r="E193" s="19"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="21"/>
+    </row>
+    <row r="194" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="22"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="23"/>
+      <c r="H194" s="24"/>
+    </row>
+    <row r="195" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="26"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="27"/>
+    </row>
+    <row r="196" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>1</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E197" s="2" t="str">
+        <f>VLOOKUP(D197,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G197" s="17" t="str">
+        <f>VLOOKUP(D197,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>2</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E198" s="2" t="str">
+        <f>VLOOKUP(D198,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(50)</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G198" s="17" t="str">
+        <f>VLOOKUP(D198,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H198" s="2"/>
+    </row>
+    <row r="199" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A199" s="4">
+        <v>3</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E199" s="2" t="str">
+        <f>VLOOKUP(D199,도메인!$A$2:$C$28,3,)</f>
+        <v>date</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G199" s="17" t="str">
+        <f>VLOOKUP(D199,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A200" s="4">
+        <v>4</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E200" s="2" t="str">
+        <f>VLOOKUP(D200,도메인!$A$2:$C$28,3,)</f>
+        <v>varchar2(1000)</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G200" s="17" t="str">
+        <f>VLOOKUP(D200,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A201" s="4">
+        <v>5</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E201" s="2" t="str">
+        <f>VLOOKUP(D201,도메인!$A$2:$C$28,3,)</f>
+        <v>number(10)</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G201" s="17" t="str">
+        <f>VLOOKUP(D201,도메인!$A$2:$D$28,4,FALSE)</f>
+        <v>NULL</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="209" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="210" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="212" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -4185,31 +5710,25 @@
     <row r="225" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="226" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="E123:H124"/>
-    <mergeCell ref="B125:H125"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="A111:H111"/>
-    <mergeCell ref="E112:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="A122:H122"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="E86:H87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="E99:H100"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="E29:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A38:H38"/>
+  <mergeCells count="51">
+    <mergeCell ref="A192:H192"/>
+    <mergeCell ref="E193:H194"/>
+    <mergeCell ref="B195:H195"/>
+    <mergeCell ref="A165:H165"/>
+    <mergeCell ref="E166:H167"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="A177:H177"/>
+    <mergeCell ref="E178:H179"/>
+    <mergeCell ref="B180:H180"/>
+    <mergeCell ref="A155:H155"/>
+    <mergeCell ref="E156:H157"/>
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="A144:H144"/>
+    <mergeCell ref="E145:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="A134:H134"/>
+    <mergeCell ref="E135:H136"/>
+    <mergeCell ref="B137:H137"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="E74:H75"/>
@@ -4219,6 +5738,30 @@
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="A63:H63"/>
     <mergeCell ref="E64:H65"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="E29:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="E86:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="E99:H100"/>
+    <mergeCell ref="E123:H124"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="E112:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="A122:H122"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4231,7 +5774,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4270,7 +5813,7 @@
       <c r="C2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -4287,7 +5830,7 @@
       <c r="C3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="18">
         <v>0</v>
       </c>
       <c r="E3" s="13"/>
@@ -4302,7 +5845,7 @@
       <c r="C4" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E4" s="13"/>
@@ -4334,7 +5877,7 @@
       <c r="C6" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -4351,7 +5894,7 @@
       <c r="C7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E7" s="13"/>
@@ -4366,7 +5909,7 @@
       <c r="C8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E8" s="13"/>
@@ -4381,7 +5924,7 @@
       <c r="C9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E9" s="13"/>
@@ -4396,7 +5939,7 @@
       <c r="C10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E10" s="13"/>
@@ -4411,7 +5954,7 @@
       <c r="C11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E11" s="13"/>
@@ -4426,7 +5969,7 @@
       <c r="C12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -4443,7 +5986,7 @@
       <c r="C13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E13" s="13"/>
@@ -4458,7 +6001,7 @@
       <c r="C14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -4490,7 +6033,7 @@
       <c r="C16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E16" s="13"/>
@@ -4505,7 +6048,7 @@
       <c r="C17" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E17" s="13"/>
@@ -4520,7 +6063,7 @@
       <c r="C18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E18" s="13"/>
@@ -4535,7 +6078,7 @@
       <c r="C19" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E19" s="13"/>
@@ -4550,7 +6093,7 @@
       <c r="C20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E20" s="13"/>
@@ -4565,7 +6108,7 @@
       <c r="C21" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E21" s="13"/>
@@ -4580,7 +6123,7 @@
       <c r="C22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E22" s="13"/>
@@ -4595,7 +6138,7 @@
       <c r="C23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E23" s="13"/>
@@ -4610,7 +6153,7 @@
       <c r="C24" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E24" s="13"/>
@@ -4625,7 +6168,7 @@
       <c r="C25" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E25" s="13"/>
@@ -4640,7 +6183,7 @@
       <c r="C26" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E26" s="13"/>
@@ -4655,7 +6198,7 @@
       <c r="C27" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E27" s="15"/>
@@ -4670,7 +6213,7 @@
       <c r="C28" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E28" s="15"/>

--- a/doc/12. 테이블 정의서 .xlsx
+++ b/doc/12. 테이블 정의서 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkdlf\Project\front-end\movie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96D784E-988A-4F4E-8C6E-6DDC658CF94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7EC26-9E95-48DF-9B30-1BE7DB2591A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="322">
   <si>
     <t>테이블정의서</t>
   </si>
@@ -1300,6 +1300,10 @@
   <si>
     <t>RC_PARENT_SEQ</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1574,7 +1578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1619,6 +1623,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1885,8 +1892,8 @@
   </sheetPr>
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192:H192"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1897,16 +1904,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1921,10 +1928,10 @@
       <c r="D2" s="3">
         <v>44635</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1939,24 +1946,24 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2223,16 +2230,16 @@
     <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2247,10 +2254,10 @@
       <c r="D18" s="3">
         <v>44635</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2265,24 +2272,24 @@
       <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2444,16 +2451,16 @@
     </row>
     <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2468,10 +2475,10 @@
       <c r="D29" s="3">
         <v>44635</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2486,24 +2493,24 @@
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2600,7 +2607,7 @@
       </c>
       <c r="E35" s="2" t="str">
         <f>VLOOKUP(D35,도메인!$A$2:$C$28,3,)</f>
-        <v>varchar2(10)</v>
+        <v>varchar2(50)</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>113</v>
@@ -2614,16 +2621,16 @@
     <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -2638,10 +2645,10 @@
       <c r="D39" s="3">
         <v>44635</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -2656,24 +2663,24 @@
       <c r="D40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2916,16 +2923,16 @@
     <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -2940,10 +2947,10 @@
       <c r="D54" s="3">
         <v>44635</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="21"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -2958,24 +2965,24 @@
       <c r="D55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="24"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -3088,16 +3095,16 @@
     <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -3112,10 +3119,10 @@
       <c r="D64" s="3">
         <v>44635</v>
       </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="22"/>
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -3130,24 +3137,24 @@
       <c r="D65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -3260,16 +3267,16 @@
     <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -3284,10 +3291,10 @@
       <c r="D74" s="3">
         <v>44635</v>
       </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="21"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="22"/>
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -3302,24 +3309,24 @@
       <c r="D75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="24"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -3480,16 +3487,16 @@
       <c r="H82" s="7"/>
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="28"/>
     </row>
     <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -3504,10 +3511,10 @@
       <c r="D86" s="3">
         <v>44635</v>
       </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="21"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="22"/>
     </row>
     <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -3522,24 +3529,24 @@
       <c r="D87" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="24"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="25"/>
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
     </row>
     <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -3728,16 +3735,16 @@
     <row r="96" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="28"/>
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -3752,10 +3759,10 @@
       <c r="D99" s="3">
         <v>44635</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="21"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="22"/>
     </row>
     <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -3770,24 +3777,24 @@
       <c r="D100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="24"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="28"/>
     </row>
     <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -3975,16 +3982,16 @@
     </row>
     <row r="109" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="28" t="s">
+      <c r="A111" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="28"/>
     </row>
     <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -3999,10 +4006,10 @@
       <c r="D112" s="3">
         <v>44635</v>
       </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="21"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="22"/>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -4017,24 +4024,24 @@
       <c r="D113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E113" s="22"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="24"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="28"/>
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -4176,16 +4183,16 @@
     </row>
     <row r="120" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26"/>
-      <c r="H122" s="27"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="28"/>
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -4200,10 +4207,10 @@
       <c r="D123" s="3">
         <v>44635</v>
       </c>
-      <c r="E123" s="19"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="21"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="22"/>
     </row>
     <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -4218,24 +4225,24 @@
       <c r="D124" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E124" s="22"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="24"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="25"/>
     </row>
     <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="25" t="s">
+      <c r="B125" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="28"/>
     </row>
     <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -4332,7 +4339,7 @@
       </c>
       <c r="E129" s="2" t="str">
         <f>VLOOKUP(D129,도메인!$A$2:$C$28,3,)</f>
-        <v>date</v>
+        <v>timestamp</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>113</v>
@@ -4402,16 +4409,16 @@
     <row r="132" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="134" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A134" s="28" t="s">
+      <c r="A134" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="27"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="28"/>
     </row>
     <row r="135" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -4426,10 +4433,10 @@
       <c r="D135" s="3">
         <v>44635</v>
       </c>
-      <c r="E135" s="19"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="21"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="22"/>
     </row>
     <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -4444,24 +4451,24 @@
       <c r="D136" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E136" s="22"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="23"/>
-      <c r="H136" s="24"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="25"/>
     </row>
     <row r="137" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B137" s="25" t="s">
+      <c r="B137" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="28"/>
     </row>
     <row r="138" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -4571,16 +4578,16 @@
     </row>
     <row r="142" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="144" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A144" s="28" t="s">
+      <c r="A144" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="27"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="28"/>
     </row>
     <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -4595,10 +4602,10 @@
       <c r="D145" s="3">
         <v>44635</v>
       </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="21"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="22"/>
     </row>
     <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -4613,24 +4620,24 @@
       <c r="D146" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E146" s="22"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="24"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="25"/>
     </row>
     <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B147" s="25" t="s">
+      <c r="B147" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C147" s="26"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
-      <c r="H147" s="27"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="28"/>
     </row>
     <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
@@ -4768,16 +4775,16 @@
     </row>
     <row r="153" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="155" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
-      <c r="G155" s="26"/>
-      <c r="H155" s="27"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="28"/>
     </row>
     <row r="156" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -4792,10 +4799,10 @@
       <c r="D156" s="3">
         <v>44635</v>
       </c>
-      <c r="E156" s="19"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="21"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="22"/>
     </row>
     <row r="157" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -4810,24 +4817,24 @@
       <c r="D157" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E157" s="22"/>
-      <c r="F157" s="23"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="24"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="25"/>
     </row>
     <row r="158" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B158" s="25" t="s">
+      <c r="B158" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26"/>
-      <c r="G158" s="26"/>
-      <c r="H158" s="27"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="28"/>
     </row>
     <row r="159" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
@@ -4938,16 +4945,16 @@
     <row r="163" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="164" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="28" t="s">
+      <c r="A165" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="26"/>
-      <c r="G165" s="26"/>
-      <c r="H165" s="27"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="28"/>
     </row>
     <row r="166" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
@@ -4962,10 +4969,10 @@
       <c r="D166" s="3">
         <v>44635</v>
       </c>
-      <c r="E166" s="19"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="21"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="22"/>
     </row>
     <row r="167" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
@@ -4980,24 +4987,24 @@
       <c r="D167" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E167" s="22"/>
-      <c r="F167" s="23"/>
-      <c r="G167" s="23"/>
-      <c r="H167" s="24"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="25"/>
     </row>
     <row r="168" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B168" s="25" t="s">
+      <c r="B168" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26"/>
-      <c r="G168" s="26"/>
-      <c r="H168" s="27"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="28"/>
     </row>
     <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
@@ -5162,16 +5169,16 @@
     <row r="175" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="176" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="177" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A177" s="28" t="s">
+      <c r="A177" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="27"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="28"/>
     </row>
     <row r="178" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
@@ -5186,10 +5193,10 @@
       <c r="D178" s="3">
         <v>44635</v>
       </c>
-      <c r="E178" s="19"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="21"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="22"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
@@ -5204,24 +5211,24 @@
       <c r="D179" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E179" s="22"/>
-      <c r="F179" s="23"/>
-      <c r="G179" s="23"/>
-      <c r="H179" s="24"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="25"/>
     </row>
     <row r="180" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B180" s="25" t="s">
+      <c r="B180" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26"/>
-      <c r="H180" s="27"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="28"/>
     </row>
     <row r="181" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
@@ -5466,16 +5473,16 @@
     <row r="190" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="191" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="192" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A192" s="28" t="s">
+      <c r="A192" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
-      <c r="F192" s="26"/>
-      <c r="G192" s="26"/>
-      <c r="H192" s="27"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="28"/>
     </row>
     <row r="193" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -5490,10 +5497,10 @@
       <c r="D193" s="3">
         <v>44635</v>
       </c>
-      <c r="E193" s="19"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="21"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="22"/>
     </row>
     <row r="194" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -5508,24 +5515,24 @@
       <c r="D194" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E194" s="22"/>
-      <c r="F194" s="23"/>
-      <c r="G194" s="23"/>
-      <c r="H194" s="24"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="24"/>
+      <c r="H194" s="25"/>
     </row>
     <row r="195" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B195" s="25" t="s">
+      <c r="B195" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="26"/>
-      <c r="G195" s="26"/>
-      <c r="H195" s="27"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="28"/>
     </row>
     <row r="196" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
@@ -5726,30 +5733,12 @@
     <mergeCell ref="A144:H144"/>
     <mergeCell ref="E145:H146"/>
     <mergeCell ref="B147:H147"/>
-    <mergeCell ref="A134:H134"/>
     <mergeCell ref="E135:H136"/>
     <mergeCell ref="B137:H137"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="E74:H75"/>
     <mergeCell ref="B76:H76"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="E54:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="E64:H65"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="E29:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="E18:H19"/>
     <mergeCell ref="A85:H85"/>
     <mergeCell ref="E86:H87"/>
     <mergeCell ref="B88:H88"/>
@@ -5759,9 +5748,27 @@
     <mergeCell ref="B125:H125"/>
     <mergeCell ref="B101:H101"/>
     <mergeCell ref="A111:H111"/>
+    <mergeCell ref="E54:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="E64:H65"/>
+    <mergeCell ref="A134:H134"/>
     <mergeCell ref="E112:H113"/>
     <mergeCell ref="B114:H114"/>
     <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="E29:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5773,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF280D25-1D07-4571-95ED-26D5296A625E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5857,8 +5864,8 @@
       <c r="B5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>58</v>
+      <c r="C5" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>59</v>
@@ -6030,8 +6037,8 @@
       <c r="B16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>78</v>
+      <c r="C16" s="19" t="s">
+        <v>321</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>200</v>
